--- a/src/main/resources/dataFile/userDataPwdExample.xlsx
+++ b/src/main/resources/dataFile/userDataPwdExample.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="微软" r:id="rId4" sheetId="2"/>
+    <sheet name="QQ" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="41">
   <si>
     <t>账号</t>
   </si>
@@ -75,6 +76,66 @@
   </si>
   <si>
     <t>2024-12-17 16:05:23</t>
+  </si>
+  <si>
+    <t>317255974</t>
+  </si>
+  <si>
+    <t>Fc90uceKTaJTayuQhk/6lA==</t>
+  </si>
+  <si>
+    <t>317255974@qq.com</t>
+  </si>
+  <si>
+    <t>18612332174</t>
+  </si>
+  <si>
+    <t>发动机的开发</t>
+  </si>
+  <si>
+    <t>双方都是</t>
+  </si>
+  <si>
+    <t>2024-12-21 20:15:13</t>
+  </si>
+  <si>
+    <t>186123328888</t>
+  </si>
+  <si>
+    <t>2024-12-21 20:29:30</t>
+  </si>
+  <si>
+    <t>JOXGlWXppioLzh6Xm/NpnQ==</t>
+  </si>
+  <si>
+    <t>2024-12-21 20:31:07</t>
+  </si>
+  <si>
+    <t>317255974555</t>
+  </si>
+  <si>
+    <t>Geq5F/u3aXFOg+6tzJ5V9g==</t>
+  </si>
+  <si>
+    <t>2024-12-21 20:31:13</t>
+  </si>
+  <si>
+    <t>8978979877</t>
+  </si>
+  <si>
+    <t>3Ut/zacWmdCMibuP8CLDdA==</t>
+  </si>
+  <si>
+    <t>1861233214434</t>
+  </si>
+  <si>
+    <t>sefrer sd</t>
+  </si>
+  <si>
+    <t>fsdfs</t>
+  </si>
+  <si>
+    <t>2024-12-22 14:15:19</t>
   </si>
 </sst>
 </file>
@@ -111,8 +172,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
@@ -159,4 +221,104 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="3">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>